--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
   <si>
     <t>TestCase</t>
   </si>
@@ -77,9 +77,6 @@
     <t>MyaccountSection</t>
   </si>
   <si>
-    <t>ProfileSection</t>
-  </si>
-  <si>
     <t>PaymentInfo</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>Accounts</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Payment Info</t>
   </si>
   <si>
@@ -146,15 +137,6 @@
     <t>PDPBreadcrumbs</t>
   </si>
   <si>
-    <t>ProfileoptionProfilePage</t>
-  </si>
-  <si>
-    <t>PersonalInfoprofilePage</t>
-  </si>
-  <si>
-    <t>CheckoutSettingsProfile</t>
-  </si>
-  <si>
     <t>PaymentInfoHeader</t>
   </si>
   <si>
@@ -188,21 +170,12 @@
     <t>QuickOrderHeader</t>
   </si>
   <si>
-    <t>StoreroomsHeader</t>
-  </si>
-  <si>
     <t>SaveStorerooms</t>
   </si>
   <si>
-    <t>AccountsHeader</t>
-  </si>
-  <si>
     <t>MyaccountSectionLogout</t>
   </si>
   <si>
-    <t>PurchasingHistory</t>
-  </si>
-  <si>
     <t>Storerooms</t>
   </si>
   <si>
@@ -252,13 +225,61 @@
   </si>
   <si>
     <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
+    <t>DashboardSection</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>DashbordoptionDashboardpage</t>
+  </si>
+  <si>
+    <t>AccountInfoDashbordpage</t>
+  </si>
+  <si>
+    <t>CompanyInfoDashbordpage</t>
+  </si>
+  <si>
+    <t>StoroomsInfoDashbordpage</t>
+  </si>
+  <si>
+    <t>QuickLinksDashbordpage</t>
+  </si>
+  <si>
+    <t>Purchasinghistory</t>
+  </si>
+  <si>
+    <t>Mystoreroomheader</t>
+  </si>
+  <si>
+    <t>Selectanaccountheader</t>
+  </si>
+  <si>
+    <t>ProfileSettingsheader</t>
+  </si>
+  <si>
+    <t>ProfileSettings</t>
+  </si>
+  <si>
+    <t>Profile Settings</t>
+  </si>
+  <si>
+    <t>PersonalInfoprofileseetingpage</t>
+  </si>
+  <si>
+    <t>Checkoutsettingprofilesettingpage</t>
+  </si>
+  <si>
+    <t>SignOut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,9 +288,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -320,31 +368,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -679,19 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -713,7 +806,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -727,22 +820,22 @@
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -751,22 +844,22 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -775,7 +868,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -784,13 +877,13 @@
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -800,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -816,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -831,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -843,17 +936,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -868,14 +961,14 @@
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -890,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -905,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -915,13 +1008,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -930,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -943,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -958,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -973,41 +1066,43 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1016,26 +1111,26 @@
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1044,26 +1139,26 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1072,511 +1167,545 @@
         <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>23</v>
+      <c r="C34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="B35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="D42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="C43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
+      <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="3"/>
+      <c r="D47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>26</v>
+      <c r="C48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="3"/>
+      <c r="B49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>54</v>
+      <c r="C50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
+      <c r="D56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="s">
+      <c r="C58" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="4" t="s">
-        <v>15</v>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3"/>
-      <c r="B64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="3"/>
+      <c r="B64" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C67" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>60</v>
+      <c r="D67" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1588,15 +1717,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1613,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1621,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1629,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1658,151 +1787,151 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="b">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1810,15 +1939,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1826,7 +1955,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1834,7 +1963,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1842,15 +1971,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>49</v>
+      <c r="A32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="b">
         <v>1</v>
@@ -1858,7 +1987,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1866,7 +1995,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1874,7 +2003,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -1882,7 +2011,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
@@ -1890,15 +2019,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>55</v>
+      <c r="A38" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="3" t="b">
         <v>1</v>
@@ -1906,7 +2035,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="b">
         <v>1</v>
@@ -1914,7 +2043,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="b">
         <v>1</v>
@@ -1922,7 +2051,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="b">
         <v>1</v>
@@ -1930,34 +2059,82 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="5" t="b">
-        <v>0</v>
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1967,21 +2144,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2178,24 +2340,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2212,4 +2372,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>